--- a/tests/resources_generator/tests/resources/MATH.xlsx
+++ b/tests/resources_generator/tests/resources/MATH.xlsx
@@ -425,96 +425,77 @@
       <c r="A1" t="n">
         <v>3.7</v>
       </c>
-      <c r="B1">
-        <f>FLOOR(A1, 1)</f>
-        <v/>
-      </c>
-      <c r="C1">
-        <f>TRUNC(A1)</f>
-        <v/>
-      </c>
-      <c r="D1">
-        <f>SIGN(A1)</f>
-        <v/>
-      </c>
-      <c r="E1">
-        <f>LOG(A4)</f>
-        <v/>
-      </c>
-      <c r="F1">
-        <f>LOG10(A4)</f>
-        <v/>
-      </c>
-      <c r="G1">
-        <f>EXP(0)</f>
-        <v/>
+      <c r="B1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-2.3</v>
       </c>
-      <c r="B2">
-        <f>FLOOR(A2, 1)</f>
-        <v/>
-      </c>
-      <c r="C2">
-        <f>TRUNC(A2)</f>
-        <v/>
-      </c>
-      <c r="D2">
-        <f>SIGN(A2)</f>
-        <v/>
-      </c>
-      <c r="E2">
-        <f>LOG(A4, 2)</f>
-        <v/>
-      </c>
-      <c r="F2">
-        <f>LOG10(1000)</f>
-        <v/>
-      </c>
-      <c r="G2">
-        <f>EXP(1)</f>
-        <v/>
+      <c r="B2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.643856189774724</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.718281828459045</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>0</v>
       </c>
-      <c r="B3">
-        <f>FLOOR(A1, 0.5)</f>
-        <v/>
-      </c>
-      <c r="C3">
-        <f>TRUNC(A1, 1)</f>
-        <v/>
-      </c>
-      <c r="D3">
-        <f>SIGN(A3)</f>
-        <v/>
-      </c>
-      <c r="E3">
-        <f>LOG(A5, EXP(1))</f>
-        <v/>
-      </c>
-      <c r="G3">
-        <f>EXP(2)</f>
-        <v/>
+      <c r="B3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7.38905609893065</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>100</v>
       </c>
-      <c r="B4">
-        <f>FLOOR(A4, 10)</f>
-        <v/>
-      </c>
-      <c r="C4">
-        <f>TRUNC(A4, -1)</f>
-        <v/>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="5">
